--- a/mcmaster_excel/Metric_Extreme-Temperature_Chemical-Resistant_PTFE_Pan_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Metric_Extreme-Temperature_Chemical-Resistant_PTFE_Pan_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,125 +434,99 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>PTFE Plastic</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-350° to 500°</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>94701A058</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>$2.73</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
@@ -563,7 +537,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -598,12 +572,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>94701A091</t>
+          <t>94701A058</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>$2.73</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +590,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -651,7 +625,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>94701A197</t>
+          <t>94701A091</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -669,7 +643,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -704,12 +678,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>94701A251</t>
+          <t>94701A197</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -722,7 +696,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -757,12 +731,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>94701A281</t>
+          <t>94701A251</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -775,17 +749,49 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-350° to 500°</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>94701A281</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -796,49 +802,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-350° to 500°</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>94701A285</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -849,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -884,7 +858,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>94701A318</t>
+          <t>94701A285</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -902,7 +876,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -937,7 +911,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>94701A320</t>
+          <t>94701A318</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -955,7 +929,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -990,12 +964,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>94701A365</t>
+          <t>94701A320</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1008,7 +982,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1043,12 +1017,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>94701A405</t>
+          <t>94701A365</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1061,17 +1035,49 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-350° to 500°</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>94701A405</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1082,49 +1088,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-350° to 500°</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>94701A412</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1135,7 +1109,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1170,12 +1144,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>94701A464</t>
+          <t>94701A412</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1188,7 +1162,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1223,12 +1197,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>94701A504</t>
+          <t>94701A464</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1241,7 +1215,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1276,12 +1250,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>94701A532</t>
+          <t>94701A504</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1294,7 +1268,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1329,12 +1303,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>94701A669</t>
+          <t>94701A532</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1347,17 +1321,49 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-350° to 500°</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>94701A669</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1368,49 +1374,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-350° to 500°</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>94701A789</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1421,7 +1395,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1456,12 +1430,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>94701A803</t>
+          <t>94701A789</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1474,7 +1448,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1509,12 +1483,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>94701A823</t>
+          <t>94701A803</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1527,7 +1501,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1562,12 +1536,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>94701A825</t>
+          <t>94701A823</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1580,7 +1554,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1615,16 +1589,69 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>94701A989</t>
+          <t>94701A825</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
+        <is>
+          <t>PTFE Plastic</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-350° to 500°</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>94701A989</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>PTFE Plastic</t>
         </is>
